--- a/data_processed/20250801/BTCUSDVOLSURFACE_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDVOLSURFACE_20250801.xlsx
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -19018,7 +19018,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46839,7 +46839,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46868,7 +46868,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46897,7 +46897,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46984,7 +46984,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47013,7 +47013,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250801/BTCUSDVOLSURFACE_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDVOLSURFACE_20250801.xlsx
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -19018,7 +19018,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -46839,7 +46839,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46868,7 +46868,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -46897,7 +46897,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46984,7 +46984,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -47013,7 +47013,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
